--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_002.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_002.xlsx
@@ -31,304 +31,304 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295006) (APE 6) SCRAM (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
-  </si>
-  <si>
-    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
-  </si>
-  <si>
-    <t>(295031EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Steam cooling</t>
-  </si>
-  <si>
-    <t>(295037EK2.01) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295018AA1.01) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Backup systems </t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
-  </si>
-  <si>
-    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
-  </si>
-  <si>
-    <t>(295001AK2.01) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(295026EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCI</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
-  </si>
-  <si>
-    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
-  </si>
-  <si>
-    <t>(295003AA1.03) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.01) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
-  </si>
-  <si>
-    <t>(295032EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Isolating affected systems</t>
-  </si>
-  <si>
-    <t>(295033EK2.09) Knowledge of the relationship between the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS and the following systems or components: (CFR: 41.7 / 45.8) Systems required to protect the containment</t>
-  </si>
-  <si>
-    <t>(295010AA1.06) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Leakage detection systems</t>
-  </si>
-  <si>
-    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295008AA2.05) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Swell</t>
-  </si>
-  <si>
-    <t>(295035EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release</t>
-  </si>
-  <si>
-    <t>(223002K1.29) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209002A3.02) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start </t>
-  </si>
-  <si>
-    <t>(510000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(259002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.7 / 45.7) Main steam flow input</t>
-  </si>
-  <si>
-    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295006AA2.03) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295031EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Spray cooling</t>
+  </si>
+  <si>
+    <t>(295003AA1.08) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) Station blackout instrumentation</t>
+  </si>
+  <si>
+    <t>(295016AK2.15) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main turbine and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295037EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Bypassing rod insertion blocks</t>
+  </si>
+  <si>
+    <t>(700000AA1.04) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Reactor controls</t>
+  </si>
+  <si>
+    <t>(295038EK2.08) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+  </si>
+  <si>
+    <t>(295005AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Recirculation pump downshift/trip</t>
+  </si>
+  <si>
+    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(600000AK2.10) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295017AA1.07) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system </t>
+  </si>
+  <si>
+    <t>(295036EK2.04) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Area/room/sump level indicators</t>
+  </si>
+  <si>
+    <t>(295009AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Natural circulation</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295010AA2.06) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
+  </si>
+  <si>
+    <t>(295033EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Isolating affected systems</t>
+  </si>
+  <si>
+    <t>(218000K4.03) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) ADS logic control</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A2.07) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of offsite power</t>
+  </si>
+  <si>
+    <t>(203000A4.05) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
+  </si>
+  <si>
+    <t>(217000K2.01) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(300000K1.26) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(211000K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Core plate differential pressure</t>
+  </si>
+  <si>
+    <t>(239002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Acoustical monitor noise</t>
+  </si>
+  <si>
+    <t>(261000A3.01) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
+  </si>
+  <si>
+    <t>(259002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Water level measurement</t>
+  </si>
+  <si>
+    <t>(262002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(212000K4.12) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291001K1.01) VALVES (CFR: 41.3) The function and operation of safety valves</t>
+  </si>
+  <si>
+    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
+  </si>
+  <si>
+    <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
+  </si>
+  <si>
+    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
+  </si>
+  <si>
+    <t>(223002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Shutdown cooling system/RHR</t>
+  </si>
+  <si>
+    <t>(215005K3.09) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(209001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(400000A3.04) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
+  </si>
+  <si>
+    <t>(205000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) Decay heat removal</t>
+  </si>
+  <si>
+    <t>(215003K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Reactor protection system (power supply)</t>
+  </si>
+  <si>
+    <t>(218000K4.02) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Allow manual initiation of ADS logic</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(264000A2.10) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A4.06) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset following automatic initiation </t>
+  </si>
+  <si>
+    <t>(239003K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.4) System lineup</t>
+  </si>
+  <si>
+    <t>(290001K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.7 / 45.7) Reactor building ventilation</t>
+  </si>
+  <si>
+    <t>(204000K4.09) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Leak detection</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (291008K1.01) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Purpose for racking out breakers (deenergize components and associated control and indication circuits)</t>
+  </si>
+  <si>
+    <t>(239001A2.04) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Main steam line low pressure</t>
+  </si>
+  <si>
+    <t>(272000A4.01) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Radiation monitoring system recorders</t>
+  </si>
+  <si>
+    <t>(288000K2.01) (SF9 PVS) PLANT VENTILATION SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Primary containment supply and exhaust fans</t>
+  </si>
+  <si>
+    <t>(259001K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(219000K3.02) Knowledge of the effect that a loss or malfunction of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression chamber temperature</t>
+  </si>
+  <si>
+    <t>(256000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) Reactor water level</t>
+  </si>
+  <si>
+    <t>(290002A2.04) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Excessive heatup/cooldown rate</t>
+  </si>
+  <si>
+    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
+  </si>
+  <si>
+    <t>(292004K1.10) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the void coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
   </si>
   <si>
     <t>(239002A2.01) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Stuck-open vacuum breakers</t>
   </si>
   <si>
-    <t>(262001K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Paralleling AC sources</t>
-  </si>
-  <si>
-    <t>(215005A4.07) Ability to manually operate and/or monitor the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR in the control room: (CFR: 41.7 / 45.5 to 45.8) OPRM back panel switches, and indicating lights</t>
-  </si>
-  <si>
-    <t>(218000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(264000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency core cooling systems</t>
-  </si>
-  <si>
-    <t>(263000K4.06) Knowledge of (SF6 DC) DC ELECTRICAL DISTRIBUTION design features and/or interlocks that provide for the following: (CFR: 41.7) Divisional separation</t>
-  </si>
-  <si>
-    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291003K1.10) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of air-operated valves, including failure modes</t>
-  </si>
-  <si>
-    <t>(261000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
-  </si>
-  <si>
-    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(209001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(215003A4.05) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Trip bypasses</t>
-  </si>
-  <si>
-    <t>(203000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(223002K1.25) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(262002K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(209002A3.01) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(510000K3.09) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fire protection system</t>
-  </si>
-  <si>
-    <t>(202001A4.13) Ability to manually operate and/or monitor the (SF1, SF4 RS) RECIRCULATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core differential pressure</t>
-  </si>
-  <si>
-    <t>(215001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(259001K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Heater drains system</t>
-  </si>
-  <si>
-    <t>(230000K4.10) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of leakage to the environment through system heat exchanger</t>
-  </si>
-  <si>
-    <t>(256000A3.10) Ability to monitor automatic operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.7 / 45.7) Pump trips</t>
-  </si>
-  <si>
-    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.7 / 45.7) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(201001K2.04) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SCRAM discharge volume vent and drain valve solenoids</t>
-  </si>
-  <si>
-    <t>(290003A2.04) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Initiation/failure of fire protection system</t>
-  </si>
-  <si>
-    <t>(234000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 FH) FUEL HANDLING: (CFR: 41.5 / 45.3) Fuel</t>
-  </si>
-  <si>
-    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510001A2.04) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) System leakage/rupture</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
-  </si>
-  <si>
-    <t>(292004K1.01) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the moderator temperature coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(293009K1.34) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Identify the possible effects of fuel densification</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(293007K1.08) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) List functions of the main condenser in a power plant</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295009AA2.03) Ability to determine and/or interpret the following as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown rate</t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(259002A2.04) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) RFP runout condition</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.06) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor high pressure</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000A2.05) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical failures</t>
-  </si>
-  <si>
-    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(288000A2.01) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High drywell pressure </t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>G</t>
@@ -337,33 +337,33 @@
     <t>A2</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295025</t>
+  </si>
+  <si>
     <t>295006</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
+    <t>295001</t>
   </si>
   <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295023</t>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295022</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>202002</t>
   </si>
   <si>
     <t>234000</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293007</t>
-  </si>
-  <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>288000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2007,7 +2007,7 @@
         <v>3.8</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D77" t="s">
         <v>105</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D79" t="s">
         <v>105</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D80" t="s">
         <v>106</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="s">
         <v>105</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D82" t="s">
         <v>106</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D83" t="s">
         <v>105</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>106</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="s">
         <v>105</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
         <v>106</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D90" t="s">
         <v>106</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D91" t="s">
         <v>105</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D92" t="s">
         <v>106</v>
@@ -2531,7 +2531,7 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D93" t="s">
         <v>105</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D94" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
